--- a/data/pca/factorExposure/factorExposure_2019-03-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-03-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.1210310331390684</v>
+        <v>0.07589117327311908</v>
       </c>
       <c r="C2">
-        <v>-0.01195486666250065</v>
+        <v>0.03504397738109572</v>
       </c>
       <c r="D2">
-        <v>-0.04904397541838661</v>
+        <v>0.01325352654147459</v>
       </c>
       <c r="E2">
-        <v>0.1239623964589667</v>
+        <v>0.04106467531941585</v>
       </c>
       <c r="F2">
-        <v>0.1033449653390531</v>
+        <v>0.140740694866085</v>
       </c>
       <c r="G2">
-        <v>0.04045955343298161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.1057217226464788</v>
+      </c>
+      <c r="H2">
+        <v>0.05882555147661447</v>
+      </c>
+      <c r="I2">
+        <v>0.02958532676634219</v>
+      </c>
+      <c r="J2">
+        <v>0.06698383302778491</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.2165580277821151</v>
+        <v>0.1706874747851095</v>
       </c>
       <c r="C3">
-        <v>-0.142095134037503</v>
+        <v>0.09163158070856485</v>
       </c>
       <c r="D3">
-        <v>0.04588512464222883</v>
+        <v>-0.03215247939741565</v>
       </c>
       <c r="E3">
-        <v>0.3332682321323088</v>
+        <v>-0.009095618987048897</v>
       </c>
       <c r="F3">
-        <v>0.01010421451269222</v>
+        <v>0.3732294306909382</v>
       </c>
       <c r="G3">
-        <v>0.08111592113062641</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.09599695751975341</v>
+      </c>
+      <c r="H3">
+        <v>0.281839513489228</v>
+      </c>
+      <c r="I3">
+        <v>0.1850862350160224</v>
+      </c>
+      <c r="J3">
+        <v>0.2397686480081697</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.09414150962170266</v>
+        <v>0.07451686805160647</v>
       </c>
       <c r="C4">
-        <v>-0.04275949404518877</v>
+        <v>0.03691436977106567</v>
       </c>
       <c r="D4">
-        <v>-0.02357001288320903</v>
+        <v>-0.02615758430029385</v>
       </c>
       <c r="E4">
-        <v>0.07473945380345259</v>
+        <v>0.03742592151848867</v>
       </c>
       <c r="F4">
-        <v>0.03056436076457263</v>
+        <v>0.08127760593215988</v>
       </c>
       <c r="G4">
-        <v>0.03311515834034205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04702791947834124</v>
+      </c>
+      <c r="H4">
+        <v>0.02346600306059601</v>
+      </c>
+      <c r="I4">
+        <v>0.03121442222121371</v>
+      </c>
+      <c r="J4">
+        <v>0.05863049979329128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01756830815206225</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.009460095022097308</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.009580034473280171</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.005394033952499979</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.003932433310562943</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.02109892237182924</v>
+      </c>
+      <c r="H6">
+        <v>-0.0007379090311082028</v>
+      </c>
+      <c r="I6">
+        <v>-0.01373223794217163</v>
+      </c>
+      <c r="J6">
+        <v>0.001276770601970749</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.04325649184660377</v>
+        <v>0.03528491355243157</v>
       </c>
       <c r="C7">
-        <v>-0.01564703797759436</v>
+        <v>0.005440482762276497</v>
       </c>
       <c r="D7">
-        <v>-0.03558223689361285</v>
+        <v>-0.03968038573002638</v>
       </c>
       <c r="E7">
-        <v>0.07505375992596559</v>
+        <v>0.02896835821953268</v>
       </c>
       <c r="F7">
-        <v>-0.0531251064210527</v>
+        <v>0.05495760877137056</v>
       </c>
       <c r="G7">
-        <v>-0.01310275015738786</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.006005208419408371</v>
+      </c>
+      <c r="H7">
+        <v>0.04598624365235968</v>
+      </c>
+      <c r="I7">
+        <v>0.0007295490154992483</v>
+      </c>
+      <c r="J7">
+        <v>0.05582021528443679</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.04377095383082417</v>
+        <v>0.03082516500495377</v>
       </c>
       <c r="C8">
-        <v>-0.05418169100343283</v>
+        <v>0.04313499898990589</v>
       </c>
       <c r="D8">
-        <v>-0.003462521665949642</v>
+        <v>-0.02822344858854661</v>
       </c>
       <c r="E8">
-        <v>0.07308090259484509</v>
+        <v>0.01778046099082715</v>
       </c>
       <c r="F8">
-        <v>0.004446561418677652</v>
+        <v>0.07209711341407228</v>
       </c>
       <c r="G8">
-        <v>0.01501407798282113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.02200723103312746</v>
+      </c>
+      <c r="H8">
+        <v>0.0444087015310167</v>
+      </c>
+      <c r="I8">
+        <v>0.03431664116598832</v>
+      </c>
+      <c r="J8">
+        <v>0.06094414764740861</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.08347693712894637</v>
+        <v>0.06146745697223371</v>
       </c>
       <c r="C9">
-        <v>-0.040482371883964</v>
+        <v>0.0335844213916903</v>
       </c>
       <c r="D9">
-        <v>-0.03151754664046184</v>
+        <v>-0.03024231486937208</v>
       </c>
       <c r="E9">
-        <v>0.06112103987405629</v>
+        <v>0.03259632167294012</v>
       </c>
       <c r="F9">
-        <v>0.01590739990686492</v>
+        <v>0.08233316739964935</v>
       </c>
       <c r="G9">
-        <v>0.04671834358656655</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04328943866091459</v>
+      </c>
+      <c r="H9">
+        <v>0.02144975140771556</v>
+      </c>
+      <c r="I9">
+        <v>0.01341954965479554</v>
+      </c>
+      <c r="J9">
+        <v>0.03681687837541311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.01440414387067574</v>
+        <v>0.02652803908223921</v>
       </c>
       <c r="C10">
-        <v>0.1585541411361279</v>
+        <v>-0.1437641646707959</v>
       </c>
       <c r="D10">
-        <v>0.02826509471049691</v>
+        <v>0.05971270653847841</v>
       </c>
       <c r="E10">
-        <v>0.07219239668535517</v>
+        <v>-0.0273177294643014</v>
       </c>
       <c r="F10">
-        <v>0.01452507215044367</v>
+        <v>0.06721706715247794</v>
       </c>
       <c r="G10">
-        <v>-0.009729810417948945</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02234961627998861</v>
+      </c>
+      <c r="H10">
+        <v>0.001051707262315278</v>
+      </c>
+      <c r="I10">
+        <v>0.1078578505022902</v>
+      </c>
+      <c r="J10">
+        <v>-0.003623828707071988</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.05856027533840617</v>
+        <v>0.05059680370335216</v>
       </c>
       <c r="C11">
-        <v>-0.0144251694856661</v>
+        <v>0.02837745363579345</v>
       </c>
       <c r="D11">
-        <v>0.006671514884065941</v>
+        <v>-0.001893027984346413</v>
       </c>
       <c r="E11">
-        <v>0.04361942269378524</v>
+        <v>0.008369639909535181</v>
       </c>
       <c r="F11">
-        <v>0.00509281931815281</v>
+        <v>0.04018839968930085</v>
       </c>
       <c r="G11">
-        <v>-0.01244260991205636</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.006787274814335887</v>
+      </c>
+      <c r="H11">
+        <v>0.001959783602709355</v>
+      </c>
+      <c r="I11">
+        <v>-0.01079484603902639</v>
+      </c>
+      <c r="J11">
+        <v>0.04556949486768686</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.04558099248252452</v>
+        <v>0.04784396616710403</v>
       </c>
       <c r="C12">
-        <v>-0.01785021445105843</v>
+        <v>0.02176387980265294</v>
       </c>
       <c r="D12">
-        <v>0.003443028183516715</v>
+        <v>-0.01112431137582082</v>
       </c>
       <c r="E12">
-        <v>0.02974526109235849</v>
+        <v>0.01053209285627084</v>
       </c>
       <c r="F12">
-        <v>-0.009380645710384534</v>
+        <v>0.01559397520250334</v>
       </c>
       <c r="G12">
-        <v>0.00374417146141179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.00233116918677472</v>
+      </c>
+      <c r="H12">
+        <v>0.004103304119356186</v>
+      </c>
+      <c r="I12">
+        <v>-0.007062781978015516</v>
+      </c>
+      <c r="J12">
+        <v>0.03125145192829485</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.06442425392665682</v>
+        <v>0.04261396629402241</v>
       </c>
       <c r="C13">
-        <v>-0.02722284210140531</v>
+        <v>0.02971964613785454</v>
       </c>
       <c r="D13">
-        <v>0.008855162055846466</v>
+        <v>0.00632509880951196</v>
       </c>
       <c r="E13">
-        <v>0.1114640510599976</v>
+        <v>0.009157986374340751</v>
       </c>
       <c r="F13">
-        <v>0.01204675539213411</v>
+        <v>0.105910606752709</v>
       </c>
       <c r="G13">
-        <v>0.0007992573983150264</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.02206455190323346</v>
+      </c>
+      <c r="H13">
+        <v>0.04595326908363022</v>
+      </c>
+      <c r="I13">
+        <v>0.006124318299731446</v>
+      </c>
+      <c r="J13">
+        <v>0.05759810814071348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.03385312461840168</v>
+        <v>0.02802528718823396</v>
       </c>
       <c r="C14">
-        <v>-0.0215357356633495</v>
+        <v>0.01753035416494634</v>
       </c>
       <c r="D14">
-        <v>-0.02688545803517104</v>
+        <v>-0.01162818780419104</v>
       </c>
       <c r="E14">
-        <v>0.03250819961977536</v>
+        <v>0.02507517249430385</v>
       </c>
       <c r="F14">
-        <v>0.01386149383302568</v>
+        <v>0.04092109421952001</v>
       </c>
       <c r="G14">
-        <v>-0.02158486811993839</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.02941450463059814</v>
+      </c>
+      <c r="H14">
+        <v>0.05184676676610139</v>
+      </c>
+      <c r="I14">
+        <v>0.008507421750846131</v>
+      </c>
+      <c r="J14">
+        <v>0.01475119989852258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.04773407427500623</v>
+        <v>0.04478687527464058</v>
       </c>
       <c r="C16">
-        <v>-0.02849720147861601</v>
+        <v>0.03330920217673018</v>
       </c>
       <c r="D16">
-        <v>0.01038060802044418</v>
+        <v>-0.01005729540201426</v>
       </c>
       <c r="E16">
-        <v>0.03296933625716606</v>
+        <v>0.005317793541860921</v>
       </c>
       <c r="F16">
-        <v>-0.0095718057658727</v>
+        <v>0.03390923293342691</v>
       </c>
       <c r="G16">
-        <v>-0.006259892446485749</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.005341813021560358</v>
+      </c>
+      <c r="H16">
+        <v>0.008909024229912424</v>
+      </c>
+      <c r="I16">
+        <v>-0.008878669609402107</v>
+      </c>
+      <c r="J16">
+        <v>0.03871713666379389</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>-0.05274885001150448</v>
+        <v>0.04874313472207767</v>
       </c>
       <c r="C19">
-        <v>-0.0400529656096161</v>
+        <v>0.04076429141223574</v>
       </c>
       <c r="D19">
-        <v>0.004269680375622763</v>
+        <v>-0.01226938246340835</v>
       </c>
       <c r="E19">
-        <v>0.07816363916968518</v>
+        <v>0.01750659014841352</v>
       </c>
       <c r="F19">
-        <v>-0.01561482590374161</v>
+        <v>0.08008251347990095</v>
       </c>
       <c r="G19">
-        <v>-0.02830544081484745</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.01128211955797926</v>
+      </c>
+      <c r="H19">
+        <v>0.08251739576659561</v>
+      </c>
+      <c r="I19">
+        <v>0.0343883245105706</v>
+      </c>
+      <c r="J19">
+        <v>0.0494442810710542</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.03596607491048673</v>
+        <v>0.01892254984950999</v>
       </c>
       <c r="C20">
-        <v>-0.0439242416654059</v>
+        <v>0.02763903049072082</v>
       </c>
       <c r="D20">
-        <v>-0.01151311811056715</v>
+        <v>-0.01708634985575472</v>
       </c>
       <c r="E20">
-        <v>0.06845584347143197</v>
+        <v>0.01863850694745321</v>
       </c>
       <c r="F20">
-        <v>-0.01202291596537972</v>
+        <v>0.06746273975017951</v>
       </c>
       <c r="G20">
-        <v>-0.00758904962352972</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01458619388826526</v>
+      </c>
+      <c r="H20">
+        <v>0.06941422595540937</v>
+      </c>
+      <c r="I20">
+        <v>0.02016526986511967</v>
+      </c>
+      <c r="J20">
+        <v>0.078702837885796</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.03924763387750491</v>
+        <v>0.02637357101070236</v>
       </c>
       <c r="C21">
-        <v>-0.03309607787652793</v>
+        <v>0.02683079119751013</v>
       </c>
       <c r="D21">
-        <v>0.001188764419789096</v>
+        <v>-0.02405848601544791</v>
       </c>
       <c r="E21">
-        <v>0.1049894568694869</v>
+        <v>0.007675327498329847</v>
       </c>
       <c r="F21">
-        <v>0.04539719428051709</v>
+        <v>0.07842311666984077</v>
       </c>
       <c r="G21">
-        <v>0.006899582976917936</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.03574699821033281</v>
+      </c>
+      <c r="H21">
+        <v>0.0233315114846089</v>
+      </c>
+      <c r="I21">
+        <v>-0.01265098150015471</v>
+      </c>
+      <c r="J21">
+        <v>0.02767232434785539</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.05136412224799291</v>
+        <v>0.04385492120088796</v>
       </c>
       <c r="C24">
-        <v>-0.02104937462188348</v>
+        <v>0.02232795997626862</v>
       </c>
       <c r="D24">
-        <v>0.002726561309775809</v>
+        <v>-0.00597246096516388</v>
       </c>
       <c r="E24">
-        <v>0.04515936082136736</v>
+        <v>0.01046816923451559</v>
       </c>
       <c r="F24">
-        <v>-0.009641662839881028</v>
+        <v>0.04092357195048988</v>
       </c>
       <c r="G24">
-        <v>0.002053444232074024</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.004641812680693446</v>
+      </c>
+      <c r="H24">
+        <v>0.008496004660507999</v>
+      </c>
+      <c r="I24">
+        <v>-0.00646258651052656</v>
+      </c>
+      <c r="J24">
+        <v>0.04430517882226954</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.05190010612957911</v>
+        <v>0.04683753174116497</v>
       </c>
       <c r="C25">
-        <v>-0.01005440065268647</v>
+        <v>0.02099623112053574</v>
       </c>
       <c r="D25">
-        <v>0.004995984697972249</v>
+        <v>-0.00422266305327213</v>
       </c>
       <c r="E25">
-        <v>0.04258653660071753</v>
+        <v>0.008413041605053522</v>
       </c>
       <c r="F25">
-        <v>0.004670741891581704</v>
+        <v>0.04415163499595274</v>
       </c>
       <c r="G25">
-        <v>-0.001059083648753738</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.004818676814739893</v>
+      </c>
+      <c r="H25">
+        <v>-4.994319324211217e-06</v>
+      </c>
+      <c r="I25">
+        <v>-0.01183831767189822</v>
+      </c>
+      <c r="J25">
+        <v>0.03818623884910825</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.019248983450175</v>
+        <v>0.01676414014160624</v>
       </c>
       <c r="C26">
-        <v>-0.02818029721003832</v>
+        <v>0.02348800882133236</v>
       </c>
       <c r="D26">
-        <v>-0.0031233862592993</v>
+        <v>-0.003641529520140781</v>
       </c>
       <c r="E26">
-        <v>0.04036693065193899</v>
+        <v>-0.0003005234067583353</v>
       </c>
       <c r="F26">
-        <v>0.02210109955470025</v>
+        <v>0.04795690918911412</v>
       </c>
       <c r="G26">
-        <v>-0.0237498713521913</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.02256645272026523</v>
+      </c>
+      <c r="H26">
+        <v>0.03252637200497623</v>
+      </c>
+      <c r="I26">
+        <v>-0.006184609666540939</v>
+      </c>
+      <c r="J26">
+        <v>0.03771750262955442</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>-0.1155005878530932</v>
+        <v>0.07760807701233441</v>
       </c>
       <c r="C27">
-        <v>-0.03281225432548646</v>
+        <v>0.02626465101112713</v>
       </c>
       <c r="D27">
-        <v>-0.01937269999294609</v>
+        <v>-0.01206971447015497</v>
       </c>
       <c r="E27">
-        <v>0.0971036172457536</v>
+        <v>0.03388384067605845</v>
       </c>
       <c r="F27">
-        <v>0.004241555629764525</v>
+        <v>0.0686676446332416</v>
       </c>
       <c r="G27">
-        <v>0.01162910605853923</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01726272070785788</v>
+      </c>
+      <c r="H27">
+        <v>0.0123626340913965</v>
+      </c>
+      <c r="I27">
+        <v>0.02469566685015493</v>
+      </c>
+      <c r="J27">
+        <v>0.04231907496487535</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.009593945067821533</v>
+        <v>0.04084523778724119</v>
       </c>
       <c r="C28">
-        <v>0.2416841043194456</v>
+        <v>-0.2222458270260563</v>
       </c>
       <c r="D28">
-        <v>0.02749928599344273</v>
+        <v>0.08144156550467115</v>
       </c>
       <c r="E28">
-        <v>0.05100793717734352</v>
+        <v>-0.04280013811169221</v>
       </c>
       <c r="F28">
-        <v>0.03215536126099626</v>
+        <v>0.05780761000098496</v>
       </c>
       <c r="G28">
-        <v>0.001839545811546101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02449012340221272</v>
+      </c>
+      <c r="H28">
+        <v>-0.004437649754466909</v>
+      </c>
+      <c r="I28">
+        <v>0.1556302530874114</v>
+      </c>
+      <c r="J28">
+        <v>0.001427713877042243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.02343043682100393</v>
+        <v>0.0226234688772964</v>
       </c>
       <c r="C29">
-        <v>-0.02500281924271114</v>
+        <v>0.01617287156284707</v>
       </c>
       <c r="D29">
-        <v>-0.02910721794475093</v>
+        <v>-0.01605011795296976</v>
       </c>
       <c r="E29">
-        <v>0.03341240886481224</v>
+        <v>0.02542547808426998</v>
       </c>
       <c r="F29">
-        <v>0.01555844741090564</v>
+        <v>0.03562228210044513</v>
       </c>
       <c r="G29">
-        <v>-0.008619932809328424</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03093678600284708</v>
+      </c>
+      <c r="H29">
+        <v>0.04932377371310449</v>
+      </c>
+      <c r="I29">
+        <v>0.002215745179310638</v>
+      </c>
+      <c r="J29">
+        <v>0.009167226819558108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1151723941560625</v>
+        <v>0.0911692807381789</v>
       </c>
       <c r="C30">
-        <v>-0.02158913648526851</v>
+        <v>0.056843734952967</v>
       </c>
       <c r="D30">
-        <v>-0.0256449335788564</v>
+        <v>0.02156039034172472</v>
       </c>
       <c r="E30">
-        <v>0.1050784453154901</v>
+        <v>0.03108643333166729</v>
       </c>
       <c r="F30">
-        <v>-0.00899364377947146</v>
+        <v>0.1022762778147659</v>
       </c>
       <c r="G30">
-        <v>-0.02723734412258457</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01372503550561588</v>
+      </c>
+      <c r="H30">
+        <v>0.02193258516890776</v>
+      </c>
+      <c r="I30">
+        <v>-0.01188276782851179</v>
+      </c>
+      <c r="J30">
+        <v>0.03126276755072742</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.06697017402559574</v>
+        <v>0.06318473611414664</v>
       </c>
       <c r="C31">
-        <v>-0.01580188284379686</v>
+        <v>0.02362215441826135</v>
       </c>
       <c r="D31">
-        <v>-0.01692928233978608</v>
+        <v>0.004916476958277271</v>
       </c>
       <c r="E31">
-        <v>-0.01628674343638337</v>
+        <v>0.02153208367927609</v>
       </c>
       <c r="F31">
-        <v>0.01861477858458022</v>
+        <v>0.002941659563388541</v>
       </c>
       <c r="G31">
-        <v>-0.05072720185045257</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.04197879144329212</v>
+      </c>
+      <c r="H31">
+        <v>0.02954843675303985</v>
+      </c>
+      <c r="I31">
+        <v>0.01292186795786616</v>
+      </c>
+      <c r="J31">
+        <v>0.01471426711631059</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.06579834704924363</v>
+        <v>0.04469872024335665</v>
       </c>
       <c r="C32">
-        <v>-0.03635261444597464</v>
+        <v>0.04223478924480507</v>
       </c>
       <c r="D32">
-        <v>-0.009164026963381611</v>
+        <v>-0.03005886131535848</v>
       </c>
       <c r="E32">
-        <v>0.1048636568896806</v>
+        <v>0.02880894228061866</v>
       </c>
       <c r="F32">
-        <v>-0.01212981901849036</v>
+        <v>0.0867414989189992</v>
       </c>
       <c r="G32">
-        <v>-0.01899311325828065</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01364452236875121</v>
+      </c>
+      <c r="H32">
+        <v>0.03912911341371365</v>
+      </c>
+      <c r="I32">
+        <v>0.02315779070636775</v>
+      </c>
+      <c r="J32">
+        <v>0.04773291513076208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.06837646727656208</v>
+        <v>0.0579141090629182</v>
       </c>
       <c r="C33">
-        <v>-0.04613465771585127</v>
+        <v>0.0550090440390234</v>
       </c>
       <c r="D33">
-        <v>-0.009215915250855652</v>
+        <v>0.001085379462083706</v>
       </c>
       <c r="E33">
-        <v>0.07639674165605101</v>
+        <v>0.01154006454930924</v>
       </c>
       <c r="F33">
-        <v>0.04535801017087569</v>
+        <v>0.07747751379471846</v>
       </c>
       <c r="G33">
-        <v>-0.01120918356364786</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03638073531963396</v>
+      </c>
+      <c r="H33">
+        <v>0.03788959913501396</v>
+      </c>
+      <c r="I33">
+        <v>-0.01158071636601457</v>
+      </c>
+      <c r="J33">
+        <v>0.05212114562955304</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.04861767550173565</v>
+        <v>0.04557015355932139</v>
       </c>
       <c r="C34">
-        <v>-0.0209300481361888</v>
+        <v>0.02753984378130821</v>
       </c>
       <c r="D34">
-        <v>-0.0006387497193326992</v>
+        <v>-0.01305633705001428</v>
       </c>
       <c r="E34">
-        <v>0.02784876979055249</v>
+        <v>0.01576724665256121</v>
       </c>
       <c r="F34">
-        <v>-0.007820216694503807</v>
+        <v>0.03118526044583912</v>
       </c>
       <c r="G34">
-        <v>-0.004598409994462008</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.0003003665740792876</v>
+      </c>
+      <c r="H34">
+        <v>0.01146745485583715</v>
+      </c>
+      <c r="I34">
+        <v>-0.006767785860139737</v>
+      </c>
+      <c r="J34">
+        <v>0.03456169654774458</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.01274932398161153</v>
+        <v>0.01570743610656281</v>
       </c>
       <c r="C36">
-        <v>0.000124261942973944</v>
+        <v>0.001251886609674437</v>
       </c>
       <c r="D36">
-        <v>-0.007878189614767826</v>
+        <v>-0.005157746510820359</v>
       </c>
       <c r="E36">
-        <v>0.02615236373691305</v>
+        <v>0.009861943156812348</v>
       </c>
       <c r="F36">
-        <v>0.01061430032173046</v>
+        <v>0.02789221888627997</v>
       </c>
       <c r="G36">
-        <v>-0.01464251522148372</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02384978059171446</v>
+      </c>
+      <c r="H36">
+        <v>0.02792495572086452</v>
+      </c>
+      <c r="I36">
+        <v>-0.003957142627201141</v>
+      </c>
+      <c r="J36">
+        <v>0.002617363776260034</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05161743307438604</v>
+        <v>0.03654646625790194</v>
       </c>
       <c r="C38">
-        <v>-0.01818200694665325</v>
+        <v>0.01267373997578493</v>
       </c>
       <c r="D38">
-        <v>-0.02423764311869438</v>
+        <v>-0.006810697005235618</v>
       </c>
       <c r="E38">
-        <v>0.02875298622207985</v>
+        <v>0.01309103881365506</v>
       </c>
       <c r="F38">
-        <v>0.0002956478619401788</v>
+        <v>0.04977301123363389</v>
       </c>
       <c r="G38">
-        <v>0.02866887223813878</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02920066743334754</v>
+      </c>
+      <c r="H38">
+        <v>0.0132422762985465</v>
+      </c>
+      <c r="I38">
+        <v>-0.01321536652701843</v>
+      </c>
+      <c r="J38">
+        <v>0.002758136296499951</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.07410517845208602</v>
+        <v>0.05784734167924312</v>
       </c>
       <c r="C39">
-        <v>-0.01902957088720771</v>
+        <v>0.04102528287230078</v>
       </c>
       <c r="D39">
-        <v>-0.002688666756849127</v>
+        <v>-0.008201503092411126</v>
       </c>
       <c r="E39">
-        <v>0.04255620041159305</v>
+        <v>0.01684877914613515</v>
       </c>
       <c r="F39">
-        <v>0.01346356998257417</v>
+        <v>0.05487061120849156</v>
       </c>
       <c r="G39">
-        <v>-0.0009586965424573757</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.01665405968039015</v>
+      </c>
+      <c r="H39">
+        <v>0.002017204926961855</v>
+      </c>
+      <c r="I39">
+        <v>-0.03005393242239034</v>
+      </c>
+      <c r="J39">
+        <v>0.04797983419934101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.077859858179636</v>
+        <v>0.05744742128911878</v>
       </c>
       <c r="C40">
-        <v>-0.04281914854618891</v>
+        <v>0.0451270420134683</v>
       </c>
       <c r="D40">
-        <v>-0.006507677859365169</v>
+        <v>0.007123259977618865</v>
       </c>
       <c r="E40">
-        <v>0.1076307075352082</v>
+        <v>0.02360415329452302</v>
       </c>
       <c r="F40">
-        <v>0.02120309867997561</v>
+        <v>0.09498725662563494</v>
       </c>
       <c r="G40">
-        <v>0.0255196283112371</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.0237267938271894</v>
+      </c>
+      <c r="H40">
+        <v>0.05322505225349713</v>
+      </c>
+      <c r="I40">
+        <v>0.01500159152879309</v>
+      </c>
+      <c r="J40">
+        <v>0.11687396158525</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.003081364744659624</v>
+        <v>0.003581908526374466</v>
       </c>
       <c r="C41">
-        <v>-0.0189571907268889</v>
+        <v>0.01195870335425219</v>
       </c>
       <c r="D41">
-        <v>-0.02616059567642552</v>
+        <v>-0.00503251934560186</v>
       </c>
       <c r="E41">
-        <v>0.01253583109209422</v>
+        <v>0.00817320100376337</v>
       </c>
       <c r="F41">
-        <v>0.03139636084058273</v>
+        <v>0.01463296736811586</v>
       </c>
       <c r="G41">
-        <v>-0.01388540614217214</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.0370908849799609</v>
+      </c>
+      <c r="H41">
+        <v>0.03161826136371344</v>
+      </c>
+      <c r="I41">
+        <v>0.02216027916980339</v>
+      </c>
+      <c r="J41">
+        <v>0.01122514946557007</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>-0.1377583608729047</v>
+        <v>0.2266370349048134</v>
       </c>
       <c r="C42">
-        <v>-0.1988209060466466</v>
+        <v>0.2105594727763723</v>
       </c>
       <c r="D42">
-        <v>0.9264153531892961</v>
+        <v>-0.01467558706749064</v>
       </c>
       <c r="E42">
-        <v>-0.1091037260972368</v>
+        <v>-0.9242494537989501</v>
       </c>
       <c r="F42">
-        <v>-0.01324821406029791</v>
+        <v>-0.1464602363472998</v>
       </c>
       <c r="G42">
-        <v>-0.1310710399110029</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.0007126523786276923</v>
+      </c>
+      <c r="H42">
+        <v>-0.002178415594027373</v>
+      </c>
+      <c r="I42">
+        <v>0.04662428471016038</v>
+      </c>
+      <c r="J42">
+        <v>0.0301885117940872</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.003537674735913806</v>
+        <v>0.006268529745927499</v>
       </c>
       <c r="C43">
-        <v>-0.02116894306803691</v>
+        <v>0.01443622541801022</v>
       </c>
       <c r="D43">
-        <v>-0.01754475678022562</v>
+        <v>-0.002907934271432068</v>
       </c>
       <c r="E43">
-        <v>0.03724662028209098</v>
+        <v>0.008180538055758078</v>
       </c>
       <c r="F43">
-        <v>0.01063735720288652</v>
+        <v>0.02900171285662224</v>
       </c>
       <c r="G43">
-        <v>-0.01808495897065134</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.02200412613428394</v>
+      </c>
+      <c r="H43">
+        <v>0.03131274216244698</v>
+      </c>
+      <c r="I43">
+        <v>0.01298736118622033</v>
+      </c>
+      <c r="J43">
+        <v>0.01986711127220512</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.04046447176392109</v>
+        <v>0.02994729934215387</v>
       </c>
       <c r="C44">
-        <v>-0.05154627073983792</v>
+        <v>0.03936487701366107</v>
       </c>
       <c r="D44">
-        <v>-0.01308938306042435</v>
+        <v>-0.01571341455699834</v>
       </c>
       <c r="E44">
-        <v>0.1284336402962102</v>
+        <v>0.00962576026405095</v>
       </c>
       <c r="F44">
-        <v>0.08905990430176856</v>
+        <v>0.1214327263306779</v>
       </c>
       <c r="G44">
-        <v>-0.02034774936035728</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.06329563964205687</v>
+      </c>
+      <c r="H44">
+        <v>0.1028511755747647</v>
+      </c>
+      <c r="I44">
+        <v>0.01971504978992715</v>
+      </c>
+      <c r="J44">
+        <v>0.03059754386684759</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.02844502838015891</v>
+        <v>0.02569226944836296</v>
       </c>
       <c r="C46">
-        <v>-0.02561702538339224</v>
+        <v>0.03434586234249011</v>
       </c>
       <c r="D46">
-        <v>-0.03077037114551761</v>
+        <v>-0.009501869993153713</v>
       </c>
       <c r="E46">
-        <v>0.0331676735708941</v>
+        <v>0.02768725669455332</v>
       </c>
       <c r="F46">
-        <v>0.02897405481732794</v>
+        <v>0.0477880582337039</v>
       </c>
       <c r="G46">
-        <v>-0.01982758081799558</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.02763067896672153</v>
+      </c>
+      <c r="H46">
+        <v>0.05039371325148322</v>
+      </c>
+      <c r="I46">
+        <v>0.0009333106553095749</v>
+      </c>
+      <c r="J46">
+        <v>0.01939104730960999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.08995099989069368</v>
+        <v>0.09168858002663717</v>
       </c>
       <c r="C47">
-        <v>-0.01303690620432667</v>
+        <v>0.01709386460466885</v>
       </c>
       <c r="D47">
-        <v>-0.01583319819048417</v>
+        <v>0.001908563051144297</v>
       </c>
       <c r="E47">
-        <v>-0.01873113226351255</v>
+        <v>0.0246952761201937</v>
       </c>
       <c r="F47">
-        <v>0.01486655394987882</v>
+        <v>-0.01023293414652121</v>
       </c>
       <c r="G47">
-        <v>-0.0217547855451389</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.04296674320264974</v>
+      </c>
+      <c r="H47">
+        <v>0.05268455671128676</v>
+      </c>
+      <c r="I47">
+        <v>0.01960865010892712</v>
+      </c>
+      <c r="J47">
+        <v>0.02593864675640252</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.01870563042008453</v>
+        <v>0.01903143761829226</v>
       </c>
       <c r="C48">
-        <v>-0.02396608432971609</v>
+        <v>0.01829131259909325</v>
       </c>
       <c r="D48">
-        <v>-0.01406178197226139</v>
+        <v>-0.007922151640263126</v>
       </c>
       <c r="E48">
-        <v>0.03127859851758132</v>
+        <v>0.01296196521782645</v>
       </c>
       <c r="F48">
-        <v>0.01057856428383019</v>
+        <v>0.03074961470347908</v>
       </c>
       <c r="G48">
-        <v>-0.005821871417453548</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01586629582663016</v>
+      </c>
+      <c r="H48">
+        <v>0.02115223266497779</v>
+      </c>
+      <c r="I48">
+        <v>0.01163685127651884</v>
+      </c>
+      <c r="J48">
+        <v>0.01389579952642839</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.09443915427574266</v>
+        <v>0.090397944235051</v>
       </c>
       <c r="C50">
-        <v>-0.04017665178118474</v>
+        <v>0.03253103415131284</v>
       </c>
       <c r="D50">
-        <v>-0.02821427536453849</v>
+        <v>-0.02085263167234518</v>
       </c>
       <c r="E50">
-        <v>-0.01508219982508011</v>
+        <v>0.02459886791606259</v>
       </c>
       <c r="F50">
-        <v>0.001325682279005987</v>
+        <v>-0.004620209029833864</v>
       </c>
       <c r="G50">
-        <v>-0.04230283066275886</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.001563470927154414</v>
+      </c>
+      <c r="H50">
+        <v>0.03660932494596236</v>
+      </c>
+      <c r="I50">
+        <v>-0.004385554603191289</v>
+      </c>
+      <c r="J50">
+        <v>0.01040946754544819</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.05664352477792986</v>
+        <v>0.03964362038074877</v>
       </c>
       <c r="C51">
-        <v>0.01739767881100614</v>
+        <v>-0.0009857552461430288</v>
       </c>
       <c r="D51">
-        <v>0.003348731083620578</v>
+        <v>0.01464823355353557</v>
       </c>
       <c r="E51">
-        <v>0.07980904223295915</v>
+        <v>0.009805452992586358</v>
       </c>
       <c r="F51">
-        <v>0.05669350729116253</v>
+        <v>0.09868576419020859</v>
       </c>
       <c r="G51">
-        <v>-0.05119180349829056</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.0520770689353285</v>
+      </c>
+      <c r="H51">
+        <v>0.04873598413690989</v>
+      </c>
+      <c r="I51">
+        <v>0.01704555213865607</v>
+      </c>
+      <c r="J51">
+        <v>0.04471164316362215</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1425414100189827</v>
+        <v>0.1269633042560173</v>
       </c>
       <c r="C53">
-        <v>-0.01585406908802572</v>
+        <v>0.03527861839421311</v>
       </c>
       <c r="D53">
-        <v>-0.05032364947399697</v>
+        <v>-0.002910174036085719</v>
       </c>
       <c r="E53">
-        <v>-0.0488322930129701</v>
+        <v>0.05203899068048727</v>
       </c>
       <c r="F53">
-        <v>0.006433794220628382</v>
+        <v>-0.04072402512193231</v>
       </c>
       <c r="G53">
-        <v>-0.03489811031069521</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.0223623471441942</v>
+      </c>
+      <c r="H53">
+        <v>-0.002975465692801931</v>
+      </c>
+      <c r="I53">
+        <v>0.03548164524667993</v>
+      </c>
+      <c r="J53">
+        <v>0.03715488979314258</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.02605412271613133</v>
+        <v>0.02558444923580459</v>
       </c>
       <c r="C54">
-        <v>-0.006045284476565511</v>
+        <v>0.002528741088752643</v>
       </c>
       <c r="D54">
-        <v>-0.0245908910253689</v>
+        <v>-0.005966400623891067</v>
       </c>
       <c r="E54">
-        <v>0.03559542465109944</v>
+        <v>0.02613643610945921</v>
       </c>
       <c r="F54">
-        <v>0.04948802634487603</v>
+        <v>0.03685965548406756</v>
       </c>
       <c r="G54">
-        <v>-0.001004284052806589</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.05281264435909569</v>
+      </c>
+      <c r="H54">
+        <v>0.04038898030077964</v>
+      </c>
+      <c r="I54">
+        <v>0.02699742974193991</v>
+      </c>
+      <c r="J54">
+        <v>-0.004130518288396843</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.1007242368361432</v>
+        <v>0.1001446755422148</v>
       </c>
       <c r="C55">
-        <v>0.00109232388085425</v>
+        <v>0.01743890989272691</v>
       </c>
       <c r="D55">
-        <v>-0.03671290732709473</v>
+        <v>-0.01575630652040007</v>
       </c>
       <c r="E55">
-        <v>-0.01119685804493451</v>
+        <v>0.03374767158005415</v>
       </c>
       <c r="F55">
-        <v>-0.03446347498340371</v>
+        <v>-0.02738733067200931</v>
       </c>
       <c r="G55">
-        <v>0.00711278345103581</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.006138618267382214</v>
+      </c>
+      <c r="H55">
+        <v>0.01099798431227714</v>
+      </c>
+      <c r="I55">
+        <v>0.0191238206832714</v>
+      </c>
+      <c r="J55">
+        <v>0.03122706885462025</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1775564761374468</v>
+        <v>0.1673747916728262</v>
       </c>
       <c r="C56">
-        <v>0.009400198525184667</v>
+        <v>0.01305140511757338</v>
       </c>
       <c r="D56">
-        <v>-0.08888516273320195</v>
+        <v>-0.002078728665651692</v>
       </c>
       <c r="E56">
-        <v>-0.09909746822339151</v>
+        <v>0.08749571159192977</v>
       </c>
       <c r="F56">
-        <v>-0.07054182191384302</v>
+        <v>-0.08435876327837896</v>
       </c>
       <c r="G56">
-        <v>-0.01279924745460286</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.02839660292105763</v>
+      </c>
+      <c r="H56">
+        <v>-0.04430511142046067</v>
+      </c>
+      <c r="I56">
+        <v>0.02908931794820596</v>
+      </c>
+      <c r="J56">
+        <v>0.04251194279016252</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>-0.08914194348066742</v>
+        <v>0.06690685079698405</v>
       </c>
       <c r="C57">
-        <v>-0.03244557837944645</v>
+        <v>0.03754720387456605</v>
       </c>
       <c r="D57">
-        <v>-0.02989886331996233</v>
+        <v>0.006697842113356502</v>
       </c>
       <c r="E57">
-        <v>0.04463411201149296</v>
+        <v>0.009945739691528906</v>
       </c>
       <c r="F57">
-        <v>0.03639853779947445</v>
+        <v>0.06510394993814415</v>
       </c>
       <c r="G57">
-        <v>-0.03977952384172846</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.02517856473363249</v>
+      </c>
+      <c r="H57">
+        <v>0.02968941983108383</v>
+      </c>
+      <c r="I57">
+        <v>-0.01062465897896641</v>
+      </c>
+      <c r="J57">
+        <v>0.03572172690565129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.1853945601739241</v>
+        <v>0.2082018559190193</v>
       </c>
       <c r="C58">
-        <v>-0.0306746228627092</v>
+        <v>0.1140116558292834</v>
       </c>
       <c r="D58">
-        <v>0.02217144235390727</v>
+        <v>0.05677429768169247</v>
       </c>
       <c r="E58">
-        <v>0.1186820767626125</v>
+        <v>-0.007032026083375959</v>
       </c>
       <c r="F58">
-        <v>-0.06589497790721212</v>
+        <v>0.2334897619618152</v>
       </c>
       <c r="G58">
-        <v>-0.04970110393675393</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1612259660062459</v>
+      </c>
+      <c r="H58">
+        <v>0.361824213065681</v>
+      </c>
+      <c r="I58">
+        <v>-0.1514501106756566</v>
+      </c>
+      <c r="J58">
+        <v>-0.7661851318574187</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.01701292342854686</v>
+        <v>0.04019997226164922</v>
       </c>
       <c r="C59">
-        <v>0.1943586741098073</v>
+        <v>-0.1796590297294472</v>
       </c>
       <c r="D59">
-        <v>-0.003220028552659424</v>
+        <v>0.08460261150323145</v>
       </c>
       <c r="E59">
-        <v>0.06509891717934758</v>
+        <v>-0.0071290315671313</v>
       </c>
       <c r="F59">
-        <v>0.01617855489329343</v>
+        <v>0.07146366430486911</v>
       </c>
       <c r="G59">
-        <v>0.004062948135137049</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.002612651647020084</v>
+      </c>
+      <c r="H59">
+        <v>-0.02180566711085839</v>
+      </c>
+      <c r="I59">
+        <v>0.06353470524173276</v>
+      </c>
+      <c r="J59">
+        <v>-0.01044187708205604</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.1930306539805079</v>
+        <v>0.1832466532520089</v>
       </c>
       <c r="C60">
-        <v>0.08716149028307625</v>
+        <v>-0.03213549921423699</v>
       </c>
       <c r="D60">
-        <v>-0.005123654662887272</v>
+        <v>0.06672421090088337</v>
       </c>
       <c r="E60">
-        <v>0.1872743863959895</v>
+        <v>0.01164726633145293</v>
       </c>
       <c r="F60">
-        <v>0.04386497268525609</v>
+        <v>0.2100712087414731</v>
       </c>
       <c r="G60">
-        <v>0.000163666573035262</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.07113763647111994</v>
+      </c>
+      <c r="H60">
+        <v>-0.272845226204077</v>
+      </c>
+      <c r="I60">
+        <v>-0.09985725014439961</v>
+      </c>
+      <c r="J60">
+        <v>0.02452419223793332</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.04555741642110695</v>
+        <v>0.0382488835300472</v>
       </c>
       <c r="C61">
-        <v>-0.009690585318827726</v>
+        <v>0.02452602084855998</v>
       </c>
       <c r="D61">
-        <v>0.001331650827048818</v>
+        <v>-0.008792163889168692</v>
       </c>
       <c r="E61">
-        <v>0.03889016722559963</v>
+        <v>0.005141945608613625</v>
       </c>
       <c r="F61">
-        <v>0.005093970484328731</v>
+        <v>0.04010623019846882</v>
       </c>
       <c r="G61">
-        <v>0.002470705474750066</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.01022700079808646</v>
+      </c>
+      <c r="H61">
+        <v>-0.003126775051519651</v>
+      </c>
+      <c r="I61">
+        <v>-0.03967834269720884</v>
+      </c>
+      <c r="J61">
+        <v>0.02391945477343523</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.04318237268217948</v>
+        <v>0.03115356932059184</v>
       </c>
       <c r="C63">
-        <v>-0.01111934541809696</v>
+        <v>0.01807804410866145</v>
       </c>
       <c r="D63">
-        <v>-0.01807497402155668</v>
+        <v>-0.004366537452866449</v>
       </c>
       <c r="E63">
-        <v>0.04291044183413236</v>
+        <v>0.01318009840001471</v>
       </c>
       <c r="F63">
-        <v>0.0140970869446455</v>
+        <v>0.02998351809673159</v>
       </c>
       <c r="G63">
-        <v>-0.02183670046881828</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01235585014578941</v>
+      </c>
+      <c r="H63">
+        <v>0.0496202204244458</v>
+      </c>
+      <c r="I63">
+        <v>0.03447197593286678</v>
+      </c>
+      <c r="J63">
+        <v>0.03319777450665459</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.07663573818692952</v>
+        <v>0.05812818815726884</v>
       </c>
       <c r="C64">
-        <v>-0.05650969331902312</v>
+        <v>0.04037105388488894</v>
       </c>
       <c r="D64">
-        <v>-0.05964480786051684</v>
+        <v>-0.02874596957888569</v>
       </c>
       <c r="E64">
-        <v>0.05603896965650419</v>
+        <v>0.04306553630050348</v>
       </c>
       <c r="F64">
-        <v>0.04685125676790394</v>
+        <v>0.04943323345300488</v>
       </c>
       <c r="G64">
-        <v>0.04254052155592816</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.05340170286489867</v>
+      </c>
+      <c r="H64">
+        <v>-0.008242543174574655</v>
+      </c>
+      <c r="I64">
+        <v>0.03275446773567647</v>
+      </c>
+      <c r="J64">
+        <v>0.103755367743873</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01959812684140942</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.008941393236066639</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.01003881502460313</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.006320945081542077</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>9.648008994441079e-05</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.02141305478869091</v>
+      </c>
+      <c r="H65">
+        <v>-0.004413701067117541</v>
+      </c>
+      <c r="I65">
+        <v>-0.01513352583791997</v>
+      </c>
+      <c r="J65">
+        <v>0.002826718645493901</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.08942059250541071</v>
+        <v>0.06850274520000948</v>
       </c>
       <c r="C66">
-        <v>-0.0347986583830397</v>
+        <v>0.05487867073985107</v>
       </c>
       <c r="D66">
-        <v>-0.03624993964599729</v>
+        <v>-0.00417395492214608</v>
       </c>
       <c r="E66">
-        <v>0.08020467322127926</v>
+        <v>0.0461058963385114</v>
       </c>
       <c r="F66">
-        <v>0.03647786882482058</v>
+        <v>0.06946432992725342</v>
       </c>
       <c r="G66">
-        <v>-0.004247695545212809</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.01527434254094544</v>
+      </c>
+      <c r="H66">
+        <v>0.002308425707523824</v>
+      </c>
+      <c r="I66">
+        <v>-0.03500973822334703</v>
+      </c>
+      <c r="J66">
+        <v>0.07519593281841958</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.06113606761631943</v>
+        <v>0.04759187792946271</v>
       </c>
       <c r="C67">
-        <v>0.01070601741936001</v>
+        <v>-0.003708941576932797</v>
       </c>
       <c r="D67">
-        <v>-0.01276399318271027</v>
+        <v>0.004383077753197026</v>
       </c>
       <c r="E67">
-        <v>0.0229583978535112</v>
+        <v>0.01002777796942681</v>
       </c>
       <c r="F67">
-        <v>0.003335870538476809</v>
+        <v>0.03891525448608591</v>
       </c>
       <c r="G67">
-        <v>0.024497434797742</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.03528236856469083</v>
+      </c>
+      <c r="H67">
+        <v>-0.008215216705438929</v>
+      </c>
+      <c r="I67">
+        <v>-0.0389089021194558</v>
+      </c>
+      <c r="J67">
+        <v>0.01167086974691465</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.02514310595484776</v>
+        <v>0.04964711592603325</v>
       </c>
       <c r="C68">
-        <v>0.2432321713493344</v>
+        <v>-0.2157315378543339</v>
       </c>
       <c r="D68">
-        <v>0.01660082996894838</v>
+        <v>0.09662519336863624</v>
       </c>
       <c r="E68">
-        <v>0.05006081437274713</v>
+        <v>-0.02113158886356202</v>
       </c>
       <c r="F68">
-        <v>0.01897114245720245</v>
+        <v>0.05600031326121107</v>
       </c>
       <c r="G68">
-        <v>-0.0205322277653674</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.00337316725071617</v>
+      </c>
+      <c r="H68">
+        <v>-0.0179433327032094</v>
+      </c>
+      <c r="I68">
+        <v>0.1636861383892895</v>
+      </c>
+      <c r="J68">
+        <v>-0.06714110154546206</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.07049650513959696</v>
+        <v>0.07249662759552428</v>
       </c>
       <c r="C69">
-        <v>-0.01833446718989635</v>
+        <v>0.02184217980843115</v>
       </c>
       <c r="D69">
-        <v>-0.02596554346854808</v>
+        <v>-6.666347559776604e-06</v>
       </c>
       <c r="E69">
-        <v>-0.01523520324707309</v>
+        <v>0.03028701214130068</v>
       </c>
       <c r="F69">
-        <v>0.008053376059534025</v>
+        <v>-0.00106068899062227</v>
       </c>
       <c r="G69">
-        <v>-0.02686564198168424</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02719345012326804</v>
+      </c>
+      <c r="H69">
+        <v>0.02577520152923971</v>
+      </c>
+      <c r="I69">
+        <v>-0.003677044408586858</v>
+      </c>
+      <c r="J69">
+        <v>0.03015880324721608</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.0197856031720511</v>
+        <v>0.05029370749319181</v>
       </c>
       <c r="C71">
-        <v>0.278491187522552</v>
+        <v>-0.2331252969983094</v>
       </c>
       <c r="D71">
-        <v>0.02100816590789396</v>
+        <v>0.1095723431665523</v>
       </c>
       <c r="E71">
-        <v>0.08001192841664971</v>
+        <v>-0.04260082144901137</v>
       </c>
       <c r="F71">
-        <v>0.02194139165100432</v>
+        <v>0.07899107238115916</v>
       </c>
       <c r="G71">
-        <v>-0.02270877366682917</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01371619353827765</v>
+      </c>
+      <c r="H71">
+        <v>-0.02691958609313629</v>
+      </c>
+      <c r="I71">
+        <v>0.1307694141396944</v>
+      </c>
+      <c r="J71">
+        <v>-0.02898087783973044</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1217390392184371</v>
+        <v>0.1257862106434113</v>
       </c>
       <c r="C72">
-        <v>0.003918920635438729</v>
+        <v>0.02858661626641889</v>
       </c>
       <c r="D72">
-        <v>-0.04781707029296959</v>
+        <v>-1.096652026556587e-05</v>
       </c>
       <c r="E72">
-        <v>0.0916078267754673</v>
+        <v>0.06153243160302724</v>
       </c>
       <c r="F72">
-        <v>-0.01959810117778877</v>
+        <v>0.08282625700222755</v>
       </c>
       <c r="G72">
-        <v>0.003196334079023655</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.03805350871294281</v>
+      </c>
+      <c r="H72">
+        <v>-0.01764438354518896</v>
+      </c>
+      <c r="I72">
+        <v>-0.07030391942489922</v>
+      </c>
+      <c r="J72">
+        <v>-0.08696939646631681</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2973097692389408</v>
+        <v>0.2675675871587973</v>
       </c>
       <c r="C73">
-        <v>0.1644021650230147</v>
+        <v>-0.0471336352607858</v>
       </c>
       <c r="D73">
-        <v>0.05953029881390337</v>
+        <v>0.1174774484232856</v>
       </c>
       <c r="E73">
-        <v>0.3251269377654256</v>
+        <v>-0.02758654208178703</v>
       </c>
       <c r="F73">
-        <v>0.005360549071597108</v>
+        <v>0.3117916844766819</v>
       </c>
       <c r="G73">
-        <v>0.06041108564613475</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1806502224410672</v>
+      </c>
+      <c r="H73">
+        <v>-0.4662436463287653</v>
+      </c>
+      <c r="I73">
+        <v>-0.2883756773608606</v>
+      </c>
+      <c r="J73">
+        <v>0.03765878693738405</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1606900211928092</v>
+        <v>0.1518217952164028</v>
       </c>
       <c r="C74">
-        <v>-0.003699870936655586</v>
+        <v>0.02686391386729661</v>
       </c>
       <c r="D74">
-        <v>-0.04629772973025242</v>
+        <v>0.008305210617769111</v>
       </c>
       <c r="E74">
-        <v>-0.02886615024081118</v>
+        <v>0.04996418472023959</v>
       </c>
       <c r="F74">
-        <v>-0.05082241830929418</v>
+        <v>-0.05535138776475863</v>
       </c>
       <c r="G74">
-        <v>-0.05748551883652264</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.02005904364240334</v>
+      </c>
+      <c r="H74">
+        <v>-0.030289196571137</v>
+      </c>
+      <c r="I74">
+        <v>0.01968393558882137</v>
+      </c>
+      <c r="J74">
+        <v>0.08947254076776577</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.2329296967914938</v>
+        <v>0.2421679287549795</v>
       </c>
       <c r="C75">
-        <v>-0.0005200218414327508</v>
+        <v>0.02749542722723216</v>
       </c>
       <c r="D75">
-        <v>-0.07361716025530043</v>
+        <v>0.02497720813048778</v>
       </c>
       <c r="E75">
-        <v>-0.126303639345691</v>
+        <v>0.1050113171895342</v>
       </c>
       <c r="F75">
-        <v>-0.01673303715129299</v>
+        <v>-0.1429868499826528</v>
       </c>
       <c r="G75">
-        <v>-0.04756258631729665</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.005199236129954271</v>
+      </c>
+      <c r="H75">
+        <v>-0.01950495027575012</v>
+      </c>
+      <c r="I75">
+        <v>0.08353352843082819</v>
+      </c>
+      <c r="J75">
+        <v>0.01737265381972238</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.245360652569232</v>
+        <v>0.2686630343095694</v>
       </c>
       <c r="C76">
-        <v>0.007396960299047635</v>
+        <v>0.01040876337550155</v>
       </c>
       <c r="D76">
-        <v>-0.1157999154442455</v>
+        <v>-0.01092933025268385</v>
       </c>
       <c r="E76">
-        <v>-0.125869348884901</v>
+        <v>0.1302218030130809</v>
       </c>
       <c r="F76">
-        <v>-0.06226768184686222</v>
+        <v>-0.1861046751345729</v>
       </c>
       <c r="G76">
-        <v>-0.03204226480438276</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.05266556654242777</v>
+      </c>
+      <c r="H76">
+        <v>-0.0446898681957604</v>
+      </c>
+      <c r="I76">
+        <v>0.04437844570934089</v>
+      </c>
+      <c r="J76">
+        <v>0.07076153284000467</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.135268042781133</v>
+        <v>0.1272200682326518</v>
       </c>
       <c r="C77">
-        <v>-0.05311436366842139</v>
+        <v>0.06192160113918393</v>
       </c>
       <c r="D77">
-        <v>0.03988171172548004</v>
+        <v>-0.01162201047368369</v>
       </c>
       <c r="E77">
-        <v>0.1486310147451919</v>
+        <v>-0.0319461363590432</v>
       </c>
       <c r="F77">
-        <v>0.02803378656996825</v>
+        <v>0.1615435168178157</v>
       </c>
       <c r="G77">
-        <v>0.03905917895287683</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.003076457719728059</v>
+      </c>
+      <c r="H77">
+        <v>0.2322175058993358</v>
+      </c>
+      <c r="I77">
+        <v>0.2443886965542618</v>
+      </c>
+      <c r="J77">
+        <v>0.09634947434433708</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.08731825302569557</v>
+        <v>0.07894357478489618</v>
       </c>
       <c r="C78">
-        <v>-0.05303288351902243</v>
+        <v>0.06993882467949085</v>
       </c>
       <c r="D78">
-        <v>0.01185574825243164</v>
+        <v>-0.02985783794925136</v>
       </c>
       <c r="E78">
-        <v>0.05323842353505553</v>
+        <v>0.008897983539756139</v>
       </c>
       <c r="F78">
-        <v>0.01033063169238723</v>
+        <v>0.07260322969475788</v>
       </c>
       <c r="G78">
-        <v>-0.01538284970582961</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.01064310148630567</v>
+      </c>
+      <c r="H78">
+        <v>0.02060833659978328</v>
+      </c>
+      <c r="I78">
+        <v>0.03002471126096456</v>
+      </c>
+      <c r="J78">
+        <v>0.04707010183037118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.05602661995781841</v>
+        <v>0.1502839302951138</v>
       </c>
       <c r="C80">
-        <v>-0.01897471420673507</v>
+        <v>-0.3733703422361491</v>
       </c>
       <c r="D80">
-        <v>0.0908113229883432</v>
+        <v>-0.8990407402392027</v>
       </c>
       <c r="E80">
-        <v>-0.04997593556661817</v>
+        <v>-0.05182474932714674</v>
       </c>
       <c r="F80">
-        <v>-0.2995039380120365</v>
+        <v>0.04703749441846179</v>
       </c>
       <c r="G80">
-        <v>0.9148109351151652</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.04448482613381675</v>
+      </c>
+      <c r="H80">
+        <v>-0.05505942484975494</v>
+      </c>
+      <c r="I80">
+        <v>-0.02885633138402123</v>
+      </c>
+      <c r="J80">
+        <v>-0.09792902108455466</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1599566538402414</v>
+        <v>0.1792130702368136</v>
       </c>
       <c r="C81">
-        <v>0.005496964941379718</v>
+        <v>0.005736520880314508</v>
       </c>
       <c r="D81">
-        <v>-0.06653923504748659</v>
+        <v>0.008787184331203575</v>
       </c>
       <c r="E81">
-        <v>-0.1584558616330423</v>
+        <v>0.08467521215481436</v>
       </c>
       <c r="F81">
-        <v>-0.07095605764375765</v>
+        <v>-0.1580197850321376</v>
       </c>
       <c r="G81">
-        <v>-0.05816709040937983</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.02983173915296526</v>
+      </c>
+      <c r="H81">
+        <v>-0.01130817858021482</v>
+      </c>
+      <c r="I81">
+        <v>0.0574334140962362</v>
+      </c>
+      <c r="J81">
+        <v>0.0005756537068382084</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.09392857321596867</v>
+        <v>0.06982095348264436</v>
       </c>
       <c r="C83">
-        <v>-0.06096790449681276</v>
+        <v>0.05332900247670875</v>
       </c>
       <c r="D83">
-        <v>0.06783768909675697</v>
+        <v>-0.003701931196570181</v>
       </c>
       <c r="E83">
-        <v>0.0123969929155892</v>
+        <v>-0.03694617823569504</v>
       </c>
       <c r="F83">
-        <v>0.06507544791842192</v>
+        <v>0.04588891235477447</v>
       </c>
       <c r="G83">
-        <v>-0.01776767541686573</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.0591842552167061</v>
+      </c>
+      <c r="H83">
+        <v>0.0235586844967345</v>
+      </c>
+      <c r="I83">
+        <v>0.01886662512763673</v>
+      </c>
+      <c r="J83">
+        <v>0.07888771312269839</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.2376551600710569</v>
+        <v>0.2523897522775943</v>
       </c>
       <c r="C85">
-        <v>-0.05037770508269068</v>
+        <v>0.05015380375477437</v>
       </c>
       <c r="D85">
-        <v>-0.06267698675550989</v>
+        <v>-0.006889219424188658</v>
       </c>
       <c r="E85">
-        <v>-0.1655348921108369</v>
+        <v>0.09586898295309233</v>
       </c>
       <c r="F85">
-        <v>-0.05525941098737543</v>
+        <v>-0.1876268419139355</v>
       </c>
       <c r="G85">
-        <v>-0.01736219857631134</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.008073841325629076</v>
+      </c>
+      <c r="H85">
+        <v>0.02191114921684261</v>
+      </c>
+      <c r="I85">
+        <v>0.04781726929168746</v>
+      </c>
+      <c r="J85">
+        <v>0.07333545717086487</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.0414123610697978</v>
+        <v>0.02603637331502626</v>
       </c>
       <c r="C86">
-        <v>-0.05893545681641744</v>
+        <v>0.06051255573602522</v>
       </c>
       <c r="D86">
-        <v>-0.01871072526191611</v>
+        <v>-0.02295674352162277</v>
       </c>
       <c r="E86">
-        <v>0.06676372368649124</v>
+        <v>0.01187162271494101</v>
       </c>
       <c r="F86">
-        <v>-0.00394989488092915</v>
+        <v>0.06763778189606164</v>
       </c>
       <c r="G86">
-        <v>-0.01520900162029357</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.007534761911044446</v>
+      </c>
+      <c r="H86">
+        <v>0.0657923781040165</v>
+      </c>
+      <c r="I86">
+        <v>0.02287014310800116</v>
+      </c>
+      <c r="J86">
+        <v>0.03969567788540886</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.0297204623846334</v>
+        <v>0.03434767621163162</v>
       </c>
       <c r="C87">
-        <v>0.04833222424544684</v>
+        <v>-0.007488027039600563</v>
       </c>
       <c r="D87">
-        <v>-0.0004473092422628906</v>
+        <v>0.005996162724345655</v>
       </c>
       <c r="E87">
-        <v>0.09334448004206369</v>
+        <v>0.005723809809777454</v>
       </c>
       <c r="F87">
-        <v>-0.02668900053767682</v>
+        <v>0.1000864250477432</v>
       </c>
       <c r="G87">
-        <v>-0.01007994041580496</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02544014611749814</v>
+      </c>
+      <c r="H87">
+        <v>0.01545996045879469</v>
+      </c>
+      <c r="I87">
+        <v>-0.01414301977008979</v>
+      </c>
+      <c r="J87">
+        <v>0.02197220745287242</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.04136310790636139</v>
+        <v>0.02979548503420939</v>
       </c>
       <c r="C88">
-        <v>-0.03089984295461246</v>
+        <v>0.01719594325414561</v>
       </c>
       <c r="D88">
-        <v>-0.004092451739405074</v>
+        <v>-0.01692101267415918</v>
       </c>
       <c r="E88">
-        <v>-0.01231553231812933</v>
+        <v>0.009199747254060316</v>
       </c>
       <c r="F88">
-        <v>-0.01588124086235832</v>
+        <v>-0.01359065874128711</v>
       </c>
       <c r="G88">
-        <v>-0.00879532987132893</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.03792842306215784</v>
+      </c>
+      <c r="H88">
+        <v>0.03779573984832004</v>
+      </c>
+      <c r="I88">
+        <v>-0.02379414410213973</v>
+      </c>
+      <c r="J88">
+        <v>0.02437362305336466</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.0193215404089085</v>
+        <v>0.06955107707655926</v>
       </c>
       <c r="C89">
-        <v>0.4067039529486732</v>
+        <v>-0.3543687022184481</v>
       </c>
       <c r="D89">
-        <v>0.09524158715165655</v>
+        <v>0.1747727162695858</v>
       </c>
       <c r="E89">
-        <v>0.005429758512880221</v>
+        <v>-0.06249905632325092</v>
       </c>
       <c r="F89">
-        <v>0.03341179244838921</v>
+        <v>0.03508469230987971</v>
       </c>
       <c r="G89">
-        <v>-0.0311180627395755</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.03637603287430222</v>
+      </c>
+      <c r="H89">
+        <v>0.05196508453867805</v>
+      </c>
+      <c r="I89">
+        <v>0.2614890277468985</v>
+      </c>
+      <c r="J89">
+        <v>-0.06336268854941651</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.0207178049563135</v>
+        <v>0.04956134619682845</v>
       </c>
       <c r="C90">
-        <v>0.3083415099054048</v>
+        <v>-0.3058662571810775</v>
       </c>
       <c r="D90">
-        <v>0.04694514398101763</v>
+        <v>0.1326517462563429</v>
       </c>
       <c r="E90">
-        <v>0.04731130887178764</v>
+        <v>-0.04765611525457512</v>
       </c>
       <c r="F90">
-        <v>0.03528617711410373</v>
+        <v>0.03621773479722346</v>
       </c>
       <c r="G90">
-        <v>-0.02697677268407287</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02016392308602458</v>
+      </c>
+      <c r="H90">
+        <v>0.009315780783328989</v>
+      </c>
+      <c r="I90">
+        <v>0.2213260096435886</v>
+      </c>
+      <c r="J90">
+        <v>-0.03918454275934078</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.2682152780899428</v>
+        <v>0.2919621709184934</v>
       </c>
       <c r="C91">
-        <v>-0.03784155691091633</v>
+        <v>0.04541089311762242</v>
       </c>
       <c r="D91">
-        <v>-0.07357364481111113</v>
+        <v>0.005304334760176797</v>
       </c>
       <c r="E91">
-        <v>-0.2690229274572324</v>
+        <v>0.08943454402241728</v>
       </c>
       <c r="F91">
-        <v>-0.06241639119753527</v>
+        <v>-0.2798469169185006</v>
       </c>
       <c r="G91">
-        <v>-0.004782965519968814</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.02499545215795387</v>
+      </c>
+      <c r="H91">
+        <v>-0.009875589826711398</v>
+      </c>
+      <c r="I91">
+        <v>0.1031923246881146</v>
+      </c>
+      <c r="J91">
+        <v>0.04554605742834494</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.05142755187538253</v>
+        <v>0.112201153816332</v>
       </c>
       <c r="C92">
-        <v>0.4108547610951143</v>
+        <v>-0.4044306712756714</v>
       </c>
       <c r="D92">
-        <v>0.1562532765837684</v>
+        <v>0.1509005572028386</v>
       </c>
       <c r="E92">
-        <v>-0.08923401410281991</v>
+        <v>-0.0802725797625273</v>
       </c>
       <c r="F92">
-        <v>-0.0651953793005028</v>
+        <v>-0.1251019647279001</v>
       </c>
       <c r="G92">
-        <v>0.05828861135138012</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.08431847435660672</v>
+      </c>
+      <c r="H92">
+        <v>0.4421559427582357</v>
+      </c>
+      <c r="I92">
+        <v>-0.6812643004710986</v>
+      </c>
+      <c r="J92">
+        <v>0.2873883058694491</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.009176560674912435</v>
+        <v>0.05593494885772746</v>
       </c>
       <c r="C93">
-        <v>0.3754852849106222</v>
+        <v>-0.3658230113352594</v>
       </c>
       <c r="D93">
-        <v>0.07500106367042809</v>
+        <v>0.1741944984182374</v>
       </c>
       <c r="E93">
-        <v>-0.02669991120100565</v>
+        <v>-0.08110314102405322</v>
       </c>
       <c r="F93">
-        <v>0.0007580920459203685</v>
+        <v>0.004674345358553956</v>
       </c>
       <c r="G93">
-        <v>0.01864643162189706</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03281676273878491</v>
+      </c>
+      <c r="H93">
+        <v>-0.02273396313534303</v>
+      </c>
+      <c r="I93">
+        <v>0.1617317273863547</v>
+      </c>
+      <c r="J93">
+        <v>-0.06314264222088982</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.2844519579829173</v>
+        <v>0.3042783146231019</v>
       </c>
       <c r="C94">
-        <v>0.07554359749565299</v>
+        <v>4.675449826707432e-05</v>
       </c>
       <c r="D94">
-        <v>-0.06044700244759341</v>
+        <v>0.04491105924864012</v>
       </c>
       <c r="E94">
-        <v>-0.3835403359934901</v>
+        <v>0.1320408371676918</v>
       </c>
       <c r="F94">
-        <v>-0.384528697099046</v>
+        <v>-0.3447394291262407</v>
       </c>
       <c r="G94">
-        <v>-0.162993686117177</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.2116431576742888</v>
+      </c>
+      <c r="H94">
+        <v>0.1221854482493758</v>
+      </c>
+      <c r="I94">
+        <v>0.03040388581137971</v>
+      </c>
+      <c r="J94">
+        <v>-0.1507084434729438</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1858423584320825</v>
+        <v>0.1328926187610812</v>
       </c>
       <c r="C95">
-        <v>0.01331849401007217</v>
+        <v>0.06660441461645245</v>
       </c>
       <c r="D95">
-        <v>-0.002702027691965395</v>
+        <v>0.07938982791346916</v>
       </c>
       <c r="E95">
-        <v>-0.3590901888484295</v>
+        <v>0.03528062302194031</v>
       </c>
       <c r="F95">
-        <v>0.8189088987506657</v>
+        <v>-0.08205442582277581</v>
       </c>
       <c r="G95">
-        <v>0.2459955399841757</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.8945467650984914</v>
+      </c>
+      <c r="H95">
+        <v>-0.1783825248936535</v>
+      </c>
+      <c r="I95">
+        <v>-0.09566662367713269</v>
+      </c>
+      <c r="J95">
+        <v>-0.2554687748405352</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.2276061643642139</v>
+        <v>0.2052458421466738</v>
       </c>
       <c r="C98">
-        <v>0.1066397345773943</v>
+        <v>-0.03805977685996538</v>
       </c>
       <c r="D98">
-        <v>0.03576767224050344</v>
+        <v>0.08409942643146973</v>
       </c>
       <c r="E98">
-        <v>0.08097619485886441</v>
+        <v>-0.02671840400354466</v>
       </c>
       <c r="F98">
-        <v>0.03934070624365173</v>
+        <v>0.1628230931825089</v>
       </c>
       <c r="G98">
-        <v>-0.02034204114457483</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.08599394188492444</v>
+      </c>
+      <c r="H98">
+        <v>-0.3201693927199766</v>
+      </c>
+      <c r="I98">
+        <v>-0.1597560687440246</v>
+      </c>
+      <c r="J98">
+        <v>-0.03631243070428547</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.0233090634623259</v>
+        <v>0.01652905858792052</v>
       </c>
       <c r="C101">
-        <v>-0.0248804821128388</v>
+        <v>0.02783243444815738</v>
       </c>
       <c r="D101">
-        <v>-0.03031798722150076</v>
+        <v>-0.01622477307486819</v>
       </c>
       <c r="E101">
-        <v>0.03402465370811978</v>
+        <v>0.03214119220810047</v>
       </c>
       <c r="F101">
-        <v>0.01543648291244666</v>
+        <v>0.06519967271761253</v>
       </c>
       <c r="G101">
-        <v>-0.008428432532752274</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.01839284765996814</v>
+      </c>
+      <c r="H101">
+        <v>0.1087892907827413</v>
+      </c>
+      <c r="I101">
+        <v>-0.0490212440288676</v>
+      </c>
+      <c r="J101">
+        <v>-0.1112690628630111</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>-0.1157769599363593</v>
+        <v>0.1216984643617358</v>
       </c>
       <c r="C102">
-        <v>-0.02328359221958041</v>
+        <v>0.02130186244507738</v>
       </c>
       <c r="D102">
-        <v>-0.04349772668448511</v>
+        <v>-0.008914040493997149</v>
       </c>
       <c r="E102">
-        <v>-0.08944232869084268</v>
+        <v>0.05564194038358526</v>
       </c>
       <c r="F102">
-        <v>-0.004630764268840573</v>
+        <v>-0.09934025510886432</v>
       </c>
       <c r="G102">
-        <v>0.01224274102546911</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.01391672257067157</v>
+      </c>
+      <c r="H102">
+        <v>-0.01909120518923512</v>
+      </c>
+      <c r="I102">
+        <v>0.05382916342031847</v>
+      </c>
+      <c r="J102">
+        <v>0.04296444802987301</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>-0.01522369668419746</v>
+        <v>0.03086529266687387</v>
       </c>
       <c r="C103">
-        <v>-0.0002030316654574236</v>
+        <v>0.002180594887118883</v>
       </c>
       <c r="D103">
-        <v>-0.0123904003414504</v>
+        <v>-0.00890155120048876</v>
       </c>
       <c r="E103">
-        <v>-0.02582699726553201</v>
+        <v>0.01991933283143677</v>
       </c>
       <c r="F103">
-        <v>-0.00639441931692905</v>
+        <v>-0.02739262554147848</v>
       </c>
       <c r="G103">
-        <v>-0.01251394340933873</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01255356868029318</v>
+      </c>
+      <c r="H103">
+        <v>0.01540880055611405</v>
+      </c>
+      <c r="I103">
+        <v>0.02953257253895068</v>
+      </c>
+      <c r="J103">
+        <v>0.005393148447641082</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
